--- a/dataset_temporary version_0227/PV generation dataset/Area for without optimizer.xlsx
+++ b/dataset_temporary version_0227/PV generation dataset/Area for without optimizer.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="29" documentId="11_AD4DBB64A54DDB1B405E381765D817954F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C128E0FF-C4C7-46E5-AD4D-567640B7057B}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="2880" windowWidth="13500" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/dataset_temporary version_0227/PV generation dataset/Area for without optimizer.xlsx
+++ b/dataset_temporary version_0227/PV generation dataset/Area for without optimizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/lcchanaj_connect_ust_hk/Documents/桌面/FYP Code/dataset_temporary version_0227/PV generation dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_AD4DBB64A54DDB1B405E381765D817954F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C128E0FF-C4C7-46E5-AD4D-567640B7057B}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_AD4DBB64A54DDB1B405E381765D817954F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E5C877-9E54-49CD-9770-51AF8BF66080}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2688" yWindow="2688" windowWidth="13500" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -595,7 +595,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>194.69709</v>
+        <v>166.55758399999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
@@ -621,5 +621,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>